--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bablove/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5437DCD7-D536-4D08-9552-C685A9A5AD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1495,12 +1495,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1516,7 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1540,6 +1546,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1858,17 +1865,17 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1905,7 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1909,7 +1916,7 @@
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1920,7 +1927,7 @@
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1931,7 +1938,7 @@
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1942,7 +1949,7 @@
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1953,7 +1960,7 @@
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5437DCD7-D536-4D08-9552-C685A9A5AD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B10E490-7F93-453D-99E4-3CE640055392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1971,7 +1971,7 @@
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1982,7 +1982,7 @@
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B10E490-7F93-453D-99E4-3CE640055392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA0E0FA-6A29-4E85-B1E6-BB422418E4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2004,7 +2004,7 @@
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2015,7 +2015,7 @@
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2037,7 +2037,7 @@
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA0E0FA-6A29-4E85-B1E6-BB422418E4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0C0CD4-D1D4-4287-B118-5767E5D4CBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2081,7 +2081,7 @@
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses &amp; Projects\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0C0CD4-D1D4-4287-B118-5767E5D4CBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A329594-6A8F-4A85-B2EB-BDE3C412C2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1495,7 +1495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1505,6 +1505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,7 +1528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1547,6 +1553,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1865,7 +1872,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2092,7 +2099,7 @@
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2114,7 +2121,7 @@
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
